--- a/redirection-list/DCEGRedirectionList.xlsx
+++ b/redirection-list/DCEGRedirectionList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blausteincm/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blausteincm/Documents/GitHub/wcms-content/redirection-list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5903CFF5-6C30-AF42-921E-107A74D08B55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C834F8FD-AEC1-C44F-A792-6D9CA08CE5DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="4780" windowWidth="33600" windowHeight="18380"/>
+    <workbookView xWindow="4220" yWindow="4400" windowWidth="30900" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCEGRedirectionList" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="DCEGRedirectionList copy" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/blausteincm/Desktop/DCEGRedirectionList copy.txt" tab="0" comma="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="DCEGRedirectionList copy" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/blausteincm/Desktop/DCEGRedirectionList copy.txt" tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="192">
   <si>
     <t>/news-events/events/2014</t>
   </si>
@@ -609,12 +609,15 @@
   </si>
   <si>
     <t>/news-events/research-news-highlights/2016/physical-activity-lower-risk</t>
+  </si>
+  <si>
+    <t>CGOV-9837</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -1145,7 +1148,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1154,6 +1157,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1224,7 +1228,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DCEGRedirectionList copy" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DCEGRedirectionList copy" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1523,12 +1527,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2044,6 +2048,12 @@
       <c r="B62" t="s">
         <v>152</v>
       </c>
+      <c r="C62" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D62" t="s">
+        <v>191</v>
+      </c>
       <c r="E62" t="s">
         <v>129</v>
       </c>
@@ -2055,6 +2065,12 @@
       <c r="B63" t="s">
         <v>154</v>
       </c>
+      <c r="C63" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D63" t="s">
+        <v>191</v>
+      </c>
       <c r="E63" t="s">
         <v>130</v>
       </c>
@@ -2066,6 +2082,12 @@
       <c r="B64" t="s">
         <v>156</v>
       </c>
+      <c r="C64" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D64" t="s">
+        <v>191</v>
+      </c>
       <c r="E64" t="s">
         <v>131</v>
       </c>
@@ -2077,6 +2099,12 @@
       <c r="B65" t="s">
         <v>158</v>
       </c>
+      <c r="C65" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D65" t="s">
+        <v>191</v>
+      </c>
       <c r="E65" t="s">
         <v>132</v>
       </c>
@@ -2088,6 +2116,12 @@
       <c r="B66" t="s">
         <v>160</v>
       </c>
+      <c r="C66" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D66" t="s">
+        <v>191</v>
+      </c>
       <c r="E66" t="s">
         <v>133</v>
       </c>
@@ -2099,6 +2133,12 @@
       <c r="B67" t="s">
         <v>162</v>
       </c>
+      <c r="C67" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D67" t="s">
+        <v>191</v>
+      </c>
       <c r="E67" t="s">
         <v>134</v>
       </c>
@@ -2110,6 +2150,12 @@
       <c r="B68" t="s">
         <v>164</v>
       </c>
+      <c r="C68" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D68" t="s">
+        <v>191</v>
+      </c>
       <c r="E68" t="s">
         <v>135</v>
       </c>
@@ -2121,6 +2167,12 @@
       <c r="B69" t="s">
         <v>166</v>
       </c>
+      <c r="C69" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D69" t="s">
+        <v>191</v>
+      </c>
       <c r="E69" t="s">
         <v>136</v>
       </c>
@@ -2132,6 +2184,12 @@
       <c r="B70" t="s">
         <v>168</v>
       </c>
+      <c r="C70" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D70" t="s">
+        <v>191</v>
+      </c>
       <c r="E70" t="s">
         <v>137</v>
       </c>
@@ -2143,6 +2201,12 @@
       <c r="B71" t="s">
         <v>170</v>
       </c>
+      <c r="C71" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D71" t="s">
+        <v>191</v>
+      </c>
       <c r="E71" t="s">
         <v>138</v>
       </c>
@@ -2154,6 +2218,12 @@
       <c r="B72" t="s">
         <v>172</v>
       </c>
+      <c r="C72" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D72" t="s">
+        <v>191</v>
+      </c>
       <c r="E72" t="s">
         <v>139</v>
       </c>
@@ -2165,6 +2235,12 @@
       <c r="B73" t="s">
         <v>126</v>
       </c>
+      <c r="C73" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D73" t="s">
+        <v>191</v>
+      </c>
       <c r="E73" t="s">
         <v>140</v>
       </c>
@@ -2176,6 +2252,12 @@
       <c r="B74" t="s">
         <v>174</v>
       </c>
+      <c r="C74" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D74" t="s">
+        <v>191</v>
+      </c>
       <c r="E74" t="s">
         <v>141</v>
       </c>
@@ -2187,6 +2269,12 @@
       <c r="B75" t="s">
         <v>176</v>
       </c>
+      <c r="C75" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D75" t="s">
+        <v>191</v>
+      </c>
       <c r="E75" t="s">
         <v>142</v>
       </c>
@@ -2198,6 +2286,12 @@
       <c r="B76" t="s">
         <v>128</v>
       </c>
+      <c r="C76" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D76" t="s">
+        <v>191</v>
+      </c>
       <c r="E76" t="s">
         <v>143</v>
       </c>
@@ -2209,6 +2303,12 @@
       <c r="B77" t="s">
         <v>178</v>
       </c>
+      <c r="C77" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D77" t="s">
+        <v>191</v>
+      </c>
       <c r="E77" t="s">
         <v>144</v>
       </c>
@@ -2220,6 +2320,12 @@
       <c r="B78" t="s">
         <v>180</v>
       </c>
+      <c r="C78" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D78" t="s">
+        <v>191</v>
+      </c>
       <c r="E78" t="s">
         <v>145</v>
       </c>
@@ -2231,6 +2337,12 @@
       <c r="B79" t="s">
         <v>182</v>
       </c>
+      <c r="C79" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D79" t="s">
+        <v>191</v>
+      </c>
       <c r="E79" t="s">
         <v>146</v>
       </c>
@@ -2242,6 +2354,12 @@
       <c r="B80" t="s">
         <v>184</v>
       </c>
+      <c r="C80" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D80" t="s">
+        <v>191</v>
+      </c>
       <c r="E80" t="s">
         <v>147</v>
       </c>
@@ -2253,6 +2371,12 @@
       <c r="B81" t="s">
         <v>186</v>
       </c>
+      <c r="C81" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D81" t="s">
+        <v>191</v>
+      </c>
       <c r="E81" t="s">
         <v>148</v>
       </c>
@@ -2264,6 +2388,12 @@
       <c r="B82" t="s">
         <v>188</v>
       </c>
+      <c r="C82" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D82" t="s">
+        <v>191</v>
+      </c>
       <c r="E82" t="s">
         <v>149</v>
       </c>
@@ -2274,6 +2404,12 @@
       </c>
       <c r="B83" t="s">
         <v>190</v>
+      </c>
+      <c r="C83" s="6">
+        <v>43651</v>
+      </c>
+      <c r="D83" t="s">
+        <v>191</v>
       </c>
       <c r="E83" t="s">
         <v>150</v>
@@ -2284,10 +2420,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A73" r:id="rId1" display="https://dceg.cancer.gov/news-events/research-news-highlights/2019/sci-hi-mar-jun"/>
-    <hyperlink ref="A76" r:id="rId2" display="https://dceg.cancer.gov/news-events/research-news-highlights/2019/sci-hi-nov-feb"/>
-    <hyperlink ref="B73" r:id="rId3" display="https://dceg.cancer.gov/news-events/research-news-highlights/2019/sci-hi-mar-jun"/>
-    <hyperlink ref="B76" r:id="rId4" display="https://dceg.cancer.gov/news-events/research-news-highlights/2019/sci-hi-nov-feb"/>
+    <hyperlink ref="A73" r:id="rId1" display="https://dceg.cancer.gov/news-events/research-news-highlights/2019/sci-hi-mar-jun" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A76" r:id="rId2" display="https://dceg.cancer.gov/news-events/research-news-highlights/2019/sci-hi-nov-feb" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B73" r:id="rId3" display="https://dceg.cancer.gov/news-events/research-news-highlights/2019/sci-hi-mar-jun" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B76" r:id="rId4" display="https://dceg.cancer.gov/news-events/research-news-highlights/2019/sci-hi-nov-feb" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/redirection-list/DCEGRedirectionList.xlsx
+++ b/redirection-list/DCEGRedirectionList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blausteincm/Documents/GitHub/wcms-content/redirection-list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goldenec/Documents/GitHub/wcms-content/redirection-list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C834F8FD-AEC1-C44F-A792-6D9CA08CE5DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F0908D-1C67-324A-AFF9-FA1348A077AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="4400" windowWidth="30900" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1200" windowWidth="30900" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCEGRedirectionList" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="195">
   <si>
     <t>/news-events/events/2014</t>
   </si>
@@ -612,6 +612,15 @@
   </si>
   <si>
     <t>CGOV-9837</t>
+  </si>
+  <si>
+    <t>/research/public-health-impact/low-intensity-smoking</t>
+  </si>
+  <si>
+    <t>/research/public-health-impact/tobacco-products</t>
+  </si>
+  <si>
+    <t>/research/public-health-impact/smokeless-tobacco</t>
   </si>
 </sst>
 </file>
@@ -1528,11 +1537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2415,6 +2424,28 @@
         <v>150</v>
       </c>
     </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" s="6">
+        <v>43689</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="6">
+        <v>43690</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/redirection-list/DCEGRedirectionList.xlsx
+++ b/redirection-list/DCEGRedirectionList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goldenec/Documents/GitHub/wcms-content/redirection-list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F0908D-1C67-324A-AFF9-FA1348A077AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E838DB67-B5AC-0340-BA88-8D15F8A2C846}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="1200" windowWidth="30900" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="198">
   <si>
     <t>/news-events/events/2014</t>
   </si>
@@ -621,6 +621,15 @@
   </si>
   <si>
     <t>/research/public-health-impact/smokeless-tobacco</t>
+  </si>
+  <si>
+    <t>/about/contact-dceg/local-map</t>
+  </si>
+  <si>
+    <t>/about/contact-dceg/visit-dceg</t>
+  </si>
+  <si>
+    <t>CGOV-10100</t>
   </si>
 </sst>
 </file>
@@ -1537,11 +1546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2446,6 +2455,20 @@
         <v>43690</v>
       </c>
     </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" s="6">
+        <v>43724</v>
+      </c>
+      <c r="D86" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/redirection-list/DCEGRedirectionList.xlsx
+++ b/redirection-list/DCEGRedirectionList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goldenec/Documents/GitHub/wcms-content/redirection-list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E838DB67-B5AC-0340-BA88-8D15F8A2C846}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55347BEB-51AF-CD4A-A99A-7DE834D83420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="1200" windowWidth="30900" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="207">
   <si>
     <t>/news-events/events/2014</t>
   </si>
@@ -630,6 +630,33 @@
   </si>
   <si>
     <t>CGOV-10100</t>
+  </si>
+  <si>
+    <t>/news-events/news/2019/mdpl-2019</t>
+  </si>
+  <si>
+    <t>/mdpl</t>
+  </si>
+  <si>
+    <t>/aarp</t>
+  </si>
+  <si>
+    <t>/news-events/news/2019/aarp-25</t>
+  </si>
+  <si>
+    <t>/cook-tenure</t>
+  </si>
+  <si>
+    <t>/news-events/news/2019/cook-tenure</t>
+  </si>
+  <si>
+    <t>CGOV-10791</t>
+  </si>
+  <si>
+    <t>CGOV-10792</t>
+  </si>
+  <si>
+    <t>CGOV-10793</t>
   </si>
 </sst>
 </file>
@@ -639,7 +666,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -777,6 +804,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1546,11 +1579,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2469,7 +2502,50 @@
         <v>197</v>
       </c>
     </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="6">
+        <v>43766</v>
+      </c>
+      <c r="D87" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="6">
+        <v>43767</v>
+      </c>
+      <c r="D88" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="6">
+        <v>43768</v>
+      </c>
+      <c r="D89" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/redirection-list/DCEGRedirectionList.xlsx
+++ b/redirection-list/DCEGRedirectionList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goldenec/Documents/GitHub/wcms-content/redirection-list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55347BEB-51AF-CD4A-A99A-7DE834D83420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCE5AF5-F483-0B4B-9473-DD69D919C51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="1200" windowWidth="30900" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="207">
   <si>
     <t>/news-events/events/2014</t>
   </si>
@@ -653,10 +653,10 @@
     <t>CGOV-10791</t>
   </si>
   <si>
-    <t>CGOV-10792</t>
-  </si>
-  <si>
-    <t>CGOV-10793</t>
+    <t>/news-events/news/2019/choi-stadtman</t>
+  </si>
+  <si>
+    <t>/choi-stadtman</t>
   </si>
 </sst>
 </file>
@@ -1579,11 +1579,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2524,10 +2524,10 @@
         <v>201</v>
       </c>
       <c r="C88" s="6">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="D88" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2538,10 +2538,24 @@
         <v>203</v>
       </c>
       <c r="C89" s="6">
-        <v>43768</v>
+        <v>43766</v>
       </c>
       <c r="D89" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>206</v>
+      </c>
+      <c r="B90" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" s="6">
+        <v>43766</v>
+      </c>
+      <c r="D90" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/redirection-list/DCEGRedirectionList.xlsx
+++ b/redirection-list/DCEGRedirectionList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goldenec/Documents/GitHub/wcms-content/redirection-list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blausteincm/Documents/GitHub/wcms-content/redirection-list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCE5AF5-F483-0B4B-9473-DD69D919C51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36DC9FD-966E-344B-B437-FA140F2911C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1200" windowWidth="30900" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1120" windowWidth="30900" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCEGRedirectionList" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="210">
   <si>
     <t>/news-events/events/2014</t>
   </si>
@@ -657,6 +657,15 @@
   </si>
   <si>
     <t>/choi-stadtman</t>
+  </si>
+  <si>
+    <t>/iteb</t>
+  </si>
+  <si>
+    <t>/about/organization/programs-hgp/iteb</t>
+  </si>
+  <si>
+    <t>CGOV-11691</t>
   </si>
 </sst>
 </file>
@@ -1579,11 +1588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2558,6 +2567,20 @@
         <v>204</v>
       </c>
     </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" t="s">
+        <v>208</v>
+      </c>
+      <c r="C91" s="6">
+        <v>43895</v>
+      </c>
+      <c r="D91" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="A1">
